--- a/lab/rpi_220.xlsx
+++ b/lab/rpi_220.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOIL\魚眼影像密度\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOIL_ALPR\lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2070,6 +2070,604 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>((r2*r2) - (r1*r1))/2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'工作表1(Rpi220)'!$H$2:$H$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>582.36176846355045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>955.61036422707389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1316.8556336135759</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1666.3263438590579</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004.2485747885403</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2330.8457358760679</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2646.3385833047105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2950.9452370265717</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3244.8811978227295</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3528.3593643633612</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3801.590050267605</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4064.7810011636357</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4318.1374117486557</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4561.8619428488892</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4796.1547384795849</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5021.2134429049984</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5237.2332176984055</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5444.4067588020989</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5642.9243135874131</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5832.9736979146983</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6014.7403131932952</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6188.4071634416032</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6354.1548723470187</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6512.1617003258871</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6662.6035615836736</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6805.6540411749593</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6941.4844120630296</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7070.2636521804234</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7192.1584614885505</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7307.3332790382701</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7415.9503000286641</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7518.1694928686484</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7614.1486162355577</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7704.0432361359417</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7788.0067429655173</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7866.1903685689613</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7938.7432032997604</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8005.8122130804404</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8067.5422564629407</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8124.076101687795</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8175.5544437446224</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8222.1159214320651</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8263.8971344179881</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8301.0326602989808</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8333.6550716609054</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8361.8949531383114</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8385.8809184750426</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8405.7396275838837</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8421.5958036064985</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8433.5722499737749</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8441.7898674656171</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8446.3676712704473</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8447.4228080465109</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8445.0705729802139</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8439.4244268477778</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8430.596013073693</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8418.6951747920248</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8403.8299719056231</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8386.1066981459153</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8365.6298981350265</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8342.502384441148</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8316.8252546439762</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8288.6979083921178</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8258.2180644608452</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8225.481777817593</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8190.5834566764534</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8153.6158795612864</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8114.6702123655705</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8073.8360254107392</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8031.2013105078368</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7986.8524980171351</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7940.8744739069371</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7893.3505968154641</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7844.362715110241</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7793.991183946142</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7742.3148823289084</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7689.4112301724963</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7635.3562053592177</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7580.2243608012795</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7524.0888415008085</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7467.0214016054524</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7409.0924214766128</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7350.3709247402148</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7290.9245953545906</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7230.81979466544</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7170.1215784667293</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7108.8937140640337</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7047.198697329266</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6985.0977697644848</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6922.6509355605813</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6859.9169786585262</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6796.9534798054956</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6733.8168336213566</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6670.5622656511841</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6607.243849432678</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6543.9145235498436</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6480.6261086964514</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6417.4293247360038</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6354.3738077599555</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6291.5081271494273</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6228.8798026347067</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6166.5353213546332</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6104.5201549169142</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6042.8787764582084</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5981.6546777046751</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5920.8903860304272</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5860.6274815218057</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5800.9066140288487</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5741.7675202353857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C25-48F7-A8A1-2300AD1BB37F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="590168816"/>
+        <c:axId val="590165904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="590168816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590165904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="590165904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590168816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2190,6 +2788,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3721,20 +4359,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4761</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>433386</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1819275</xdr:colOff>
+      <xdr:colOff>4305300</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3755,16 +4909,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>85723</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438148</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1847850</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>4257675</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3785,15 +4939,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1819275</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:colOff>4286250</xdr:colOff>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3808,6 +4962,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4324350</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4081,8 +5265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4156,6 +5340,10 @@
         <f>F2*F2</f>
         <v>385.50523802412539</v>
       </c>
+      <c r="H2">
+        <f>((E3*E3)-(E2*E2))/2</f>
+        <v>582.36176846355045</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -4181,6 +5369,10 @@
         <f t="shared" ref="G3:G66" si="4">F3*F3</f>
         <v>377.39184944647747</v>
       </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="5">((E4*E4)-(E3*E3))/2</f>
+        <v>955.61036422707389</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -4206,6 +5398,10 @@
         <f t="shared" si="4"/>
         <v>369.41495569853208</v>
       </c>
+      <c r="H4">
+        <f t="shared" si="5"/>
+        <v>1316.8556336135759</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -4231,6 +5427,10 @@
         <f t="shared" si="4"/>
         <v>361.57293921570493</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="5"/>
+        <v>1666.3263438590579</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -4256,6 +5456,10 @@
         <f t="shared" si="4"/>
         <v>353.86419266940811</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>2004.2485747885403</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -4281,6 +5485,10 @@
         <f t="shared" si="4"/>
         <v>346.28711896705602</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>2330.8457358760679</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -4306,6 +5514,10 @@
         <f t="shared" si="4"/>
         <v>338.84013125206229</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>2646.3385833047105</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -4331,6 +5543,10 @@
         <f t="shared" si="4"/>
         <v>331.52165290384352</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>2950.9452370265717</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -4356,6 +5572,10 @@
         <f t="shared" si="4"/>
         <v>324.33011753780477</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>3244.8811978227295</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -4381,6 +5601,10 @@
         <f t="shared" si="4"/>
         <v>317.26396900536838</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>3528.3593643633612</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -4406,6 +5630,10 @@
         <f t="shared" si="4"/>
         <v>310.3216613939432</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>3801.590050267605</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -4431,6 +5659,10 @@
         <f t="shared" si="4"/>
         <v>303.50165902694107</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>4064.7810011636357</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -4456,6 +5688,10 @@
         <f t="shared" si="4"/>
         <v>296.80243646377556</v>
       </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>4318.1374117486557</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -4481,6 +5717,10 @@
         <f t="shared" si="4"/>
         <v>290.22247849986013</v>
       </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>4561.8619428488892</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -4506,8 +5746,12 @@
         <f t="shared" si="4"/>
         <v>283.760280166607</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>4796.1547384795849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4531,8 +5775,12 @@
         <f t="shared" si="4"/>
         <v>277.41434673142635</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>5021.2134429049984</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4556,8 +5804,12 @@
         <f t="shared" si="4"/>
         <v>271.18319369773201</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>5237.2332176984055</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4581,8 +5833,12 @@
         <f t="shared" si="4"/>
         <v>265.06534680493388</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>5444.4067588020989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4606,8 +5862,12 @@
         <f t="shared" si="4"/>
         <v>259.0593420284435</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>5642.9243135874131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4631,8 +5891,12 @@
         <f t="shared" si="4"/>
         <v>253.16372557967594</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>5832.9736979146983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4656,8 +5920,12 @@
         <f t="shared" si="4"/>
         <v>247.37705390603878</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>6014.7403131932952</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4681,8 +5949,12 @@
         <f t="shared" si="4"/>
         <v>241.69789369094488</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>6188.4071634416032</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4706,8 +5978,12 @@
         <f t="shared" si="4"/>
         <v>236.12482185380509</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>6354.1548723470187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4731,8 +6007,12 @@
         <f t="shared" si="4"/>
         <v>230.6564255500266</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f t="shared" si="5"/>
+        <v>6512.1617003258871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4756,8 +6036,12 @@
         <f t="shared" si="4"/>
         <v>225.29130217102181</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>6662.6035615836736</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4781,8 +6065,12 @@
         <f t="shared" si="4"/>
         <v>220.0280593442078</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>6805.6540411749593</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4806,8 +6094,12 @@
         <f t="shared" si="4"/>
         <v>214.86531493298625</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>6941.4844120630296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4831,8 +6123,12 @@
         <f t="shared" si="4"/>
         <v>209.8016970367689</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f t="shared" si="5"/>
+        <v>7070.2636521804234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4856,8 +6152,12 @@
         <f t="shared" si="4"/>
         <v>204.83584399096074</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f t="shared" si="5"/>
+        <v>7192.1584614885505</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4881,8 +6181,12 @@
         <f t="shared" si="4"/>
         <v>199.96640436699093</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f t="shared" si="5"/>
+        <v>7307.3332790382701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4906,8 +6210,12 @@
         <f t="shared" si="4"/>
         <v>195.19203697224467</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f t="shared" si="5"/>
+        <v>7415.9503000286641</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4931,8 +6239,12 @@
         <f t="shared" si="4"/>
         <v>190.51141085014888</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f t="shared" si="5"/>
+        <v>7518.1694928686484</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4956,8 +6268,12 @@
         <f t="shared" si="4"/>
         <v>185.92320528010319</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f t="shared" si="5"/>
+        <v>7614.1486162355577</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4981,8 +6297,12 @@
         <f t="shared" si="4"/>
         <v>181.42610977751357</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>7704.0432361359417</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5006,8 +6326,12 @@
         <f t="shared" si="4"/>
         <v>177.01882409379812</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <f t="shared" si="5"/>
+        <v>7788.0067429655173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5031,8 +6355,12 @@
         <f t="shared" si="4"/>
         <v>172.70005821636531</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f t="shared" si="5"/>
+        <v>7866.1903685689613</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5056,8 +6384,12 @@
         <f t="shared" si="4"/>
         <v>168.46853236861756</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>7938.7432032997604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5081,8 +6413,12 @@
         <f t="shared" si="4"/>
         <v>164.32297700996031</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>8005.8122130804404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5106,8 +6442,12 @@
         <f t="shared" si="4"/>
         <v>160.26213283581339</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>8067.5422564629407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5131,8 +6471,12 @@
         <f t="shared" si="4"/>
         <v>156.28475077757881</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <f t="shared" si="5"/>
+        <v>8124.076101687795</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5156,8 +6500,12 @@
         <f t="shared" si="4"/>
         <v>152.38959200266146</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>8175.5544437446224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5181,8 +6529,12 @@
         <f t="shared" si="4"/>
         <v>148.57542791446903</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <f t="shared" si="5"/>
+        <v>8222.1159214320651</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5206,8 +6558,12 @@
         <f t="shared" si="4"/>
         <v>144.84104015241451</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>8263.8971344179881</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5231,8 +6587,12 @@
         <f t="shared" si="4"/>
         <v>141.18522059189957</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>8301.0326602989808</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5256,8 +6616,12 @@
         <f t="shared" si="4"/>
         <v>137.60677134433672</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f t="shared" si="5"/>
+        <v>8333.6550716609054</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5281,8 +6645,12 @@
         <f t="shared" si="4"/>
         <v>134.10450475712742</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <f t="shared" si="5"/>
+        <v>8361.8949531383114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5306,8 +6674,12 @@
         <f t="shared" si="4"/>
         <v>130.6772434136785</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <f t="shared" si="5"/>
+        <v>8385.8809184750426</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5331,8 +6703,12 @@
         <f t="shared" si="4"/>
         <v>127.32382013340171</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f t="shared" si="5"/>
+        <v>8405.7396275838837</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5356,8 +6732,12 @@
         <f t="shared" si="4"/>
         <v>124.04307797169822</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <f t="shared" si="5"/>
+        <v>8421.5958036064985</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5381,8 +6761,12 @@
         <f t="shared" si="4"/>
         <v>120.83387021997683</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <f t="shared" si="5"/>
+        <v>8433.5722499737749</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5406,8 +6790,12 @@
         <f t="shared" si="4"/>
         <v>117.69506040564598</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <f t="shared" si="5"/>
+        <v>8441.7898674656171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5431,8 +6819,12 @@
         <f t="shared" si="4"/>
         <v>114.62552229210411</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <f t="shared" si="5"/>
+        <v>8446.3676712704473</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5456,8 +6848,12 @@
         <f t="shared" si="4"/>
         <v>111.62413987876667</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <f t="shared" si="5"/>
+        <v>8447.4228080465109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5481,8 +6877,12 @@
         <f t="shared" si="4"/>
         <v>108.68980740102711</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <f t="shared" si="5"/>
+        <v>8445.0705729802139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5506,8 +6906,12 @@
         <f t="shared" si="4"/>
         <v>105.82142933030272</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <f t="shared" si="5"/>
+        <v>8439.4244268477778</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5531,8 +6935,12 @@
         <f t="shared" si="4"/>
         <v>103.01792037398921</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <f t="shared" si="5"/>
+        <v>8430.596013073693</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5556,8 +6964,12 @@
         <f t="shared" si="4"/>
         <v>100.27820547549855</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <f t="shared" si="5"/>
+        <v>8418.6951747920248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5581,8 +6993,12 @@
         <f t="shared" si="4"/>
         <v>97.601219814233218</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <f t="shared" si="5"/>
+        <v>8403.8299719056231</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5606,8 +7022,12 @@
         <f t="shared" si="4"/>
         <v>94.985908805588949</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <f t="shared" si="5"/>
+        <v>8386.1066981459153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5631,8 +7051,12 @@
         <f t="shared" si="4"/>
         <v>92.43122810099895</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <f t="shared" si="5"/>
+        <v>8365.6298981350265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5656,8 +7080,12 @@
         <f t="shared" si="4"/>
         <v>89.9361435878279</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <f t="shared" si="5"/>
+        <v>8342.502384441148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5681,8 +7109,12 @@
         <f t="shared" si="4"/>
         <v>87.499631389501943</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <f t="shared" si="5"/>
+        <v>8316.8252546439762</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5706,8 +7138,12 @@
         <f t="shared" si="4"/>
         <v>85.120677865435411</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <f t="shared" si="5"/>
+        <v>8288.6979083921178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5731,8 +7167,12 @@
         <f t="shared" si="4"/>
         <v>82.79827961100051</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <f t="shared" si="5"/>
+        <v>8258.2180644608452</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5756,1121 +7196,1301 @@
         <f t="shared" si="4"/>
         <v>80.531443457634211</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <f t="shared" si="5"/>
+        <v>8225.481777817593</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B111" si="5">$A67/180*3.1415926</f>
+        <f t="shared" ref="B67:B111" si="6">$A67/180*3.1415926</f>
         <v>1.1519172866666667</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D111" si="6">($L$1*$B67+$J$1*$B67*$B67+$H$1*$B67*$B67*$B67)</f>
+        <f t="shared" ref="D67:D111" si="7">($L$1*$B67+$J$1*$B67*$B67+$H$1*$B67*$B67*$B67)</f>
         <v>227.42822896817745</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E111" si="7">$N$1*$D67</f>
+        <f t="shared" ref="E67:E111" si="8">$N$1*$D67</f>
         <v>921.08432732111862</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F110" si="8">E68-E67</f>
+        <f t="shared" ref="F67:F110" si="9">E68-E67</f>
         <v>8.8498127930888586</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G110" si="9">F67*F67</f>
+        <f t="shared" ref="G67:G110" si="10">F67*F67</f>
         <v>78.319186472719224</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <f t="shared" ref="H67:H110" si="11">((E68*E68)-(E67*E67))/2</f>
+        <v>8190.5834566764534</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1693705788888888</v>
       </c>
       <c r="D68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>229.61336792943396</v>
       </c>
       <c r="E68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>929.93414011420748</v>
       </c>
       <c r="F68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.72700039874303</v>
       </c>
       <c r="G68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>76.160535959661004</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <f t="shared" si="11"/>
+        <v>8153.6158795612864</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1868238711111112</v>
       </c>
       <c r="D69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>231.76818284270385</v>
       </c>
       <c r="E69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>938.66114051295051</v>
       </c>
       <c r="F69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.6054941437358821</v>
       </c>
       <c r="G69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>74.054529457872562</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <f t="shared" si="11"/>
+        <v>8114.6702123655705</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2042771633333333</v>
       </c>
       <c r="D70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>233.8929962115275</v>
       </c>
       <c r="E70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>947.26663465668639</v>
       </c>
       <c r="F70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.4852940280668463</v>
       </c>
       <c r="G70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>72.000214742746891</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <f t="shared" si="11"/>
+        <v>8073.8360254107392</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2217304555555557</v>
       </c>
       <c r="D71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>235.98813053944525</v>
       </c>
       <c r="E71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>955.75192868475324</v>
       </c>
       <c r="F71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.3664000517361501</v>
       </c>
       <c r="G71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>69.996649825690653</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <f t="shared" si="11"/>
+        <v>8031.2013105078368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2391837477777778</v>
       </c>
       <c r="D72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>238.0539083299974</v>
       </c>
       <c r="E72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>964.11832873648939</v>
       </c>
       <c r="F72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.2488122147439071</v>
       </c>
       <c r="G72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>68.042902954108285</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <f t="shared" si="11"/>
+        <v>7986.8524980171351</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2566370400000002</v>
       </c>
       <c r="D73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>240.09065208672428</v>
       </c>
       <c r="E73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>972.3671409512333</v>
       </c>
       <c r="F73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.1325305170897764</v>
       </c>
       <c r="G73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>66.138052611396503</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <f t="shared" si="11"/>
+        <v>7940.8744739069371</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2740903322222223</v>
       </c>
       <c r="D74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>242.09868431316619</v>
       </c>
       <c r="E74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>980.49967146832307</v>
       </c>
       <c r="F74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.0175549587738715</v>
       </c>
       <c r="G74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64.281187516959491</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <f t="shared" si="11"/>
+        <v>7893.3505968154641</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2915436244444445</v>
       </c>
       <c r="D75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>244.07832751286347</v>
       </c>
       <c r="E75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>988.51722642709694</v>
       </c>
       <c r="F75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.9038855397967609</v>
       </c>
       <c r="G75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>62.471406626208335</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <f t="shared" si="11"/>
+        <v>7844.362715110241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3089969166666668</v>
       </c>
       <c r="D76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>246.02990418935647</v>
       </c>
       <c r="E76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>996.4211119668937</v>
       </c>
       <c r="F76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.7915222601574214</v>
       </c>
       <c r="G76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.707819130528613</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <f t="shared" si="11"/>
+        <v>7793.991183946142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.326450208888889</v>
       </c>
       <c r="D77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>247.95373684618548</v>
       </c>
       <c r="E77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1004.2126342270511</v>
       </c>
       <c r="F77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.6804651198566489</v>
       </c>
       <c r="G77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>58.98954445733461</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <f t="shared" si="11"/>
+        <v>7742.3148823289084</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3439035011111111</v>
       </c>
       <c r="D78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>249.85014798689082</v>
       </c>
       <c r="E78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1011.8930993469078</v>
       </c>
       <c r="F78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.5707141188944433</v>
       </c>
       <c r="G78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>57.315712270027667</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <f t="shared" si="11"/>
+        <v>7689.4112301724963</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3613567933333335</v>
       </c>
       <c r="D79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>251.71946011501291</v>
       </c>
       <c r="E79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1019.4638134658022</v>
       </c>
       <c r="F79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.4622692572701226</v>
       </c>
       <c r="G79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55.685462467998789</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <f t="shared" si="11"/>
+        <v>7635.3562053592177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3788100855555556</v>
       </c>
       <c r="D80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>253.56199573409194</v>
       </c>
       <c r="E80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1026.9260827230723</v>
       </c>
       <c r="F80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.3551305349840277</v>
       </c>
       <c r="G80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.097945186654428</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <f t="shared" si="11"/>
+        <v>7580.2243608012795</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3962633777777778</v>
       </c>
       <c r="D81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>255.37807734766827</v>
       </c>
       <c r="E81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1034.2812132580564</v>
       </c>
       <c r="F81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.2492979520370682</v>
       </c>
       <c r="G81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>52.552320797408832</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <f t="shared" si="11"/>
+        <v>7524.0888415008085</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4137166700000001</v>
       </c>
       <c r="D82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>257.16802745928231</v>
       </c>
       <c r="E82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1041.5305112100934</v>
       </c>
       <c r="F82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.1447715084273113</v>
       </c>
       <c r="G82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>51.047759907634678</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <f t="shared" si="11"/>
+        <v>7467.0214016054524</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4311699622222223</v>
       </c>
       <c r="D83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>258.93216857247427</v>
       </c>
       <c r="E83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1048.6752827185207</v>
       </c>
       <c r="F83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.041551204157031</v>
       </c>
       <c r="G83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49.58344336076533</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <f t="shared" si="11"/>
+        <v>7409.0924214766128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4486232544444446</v>
       </c>
       <c r="D84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>260.67082319078463</v>
       </c>
       <c r="E84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1055.7168339226778</v>
       </c>
       <c r="F84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.9396370392239533</v>
       </c>
       <c r="G84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>48.158562236168997</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <f t="shared" si="11"/>
+        <v>7350.3709247402148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4660765466666668</v>
       </c>
       <c r="D85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>262.38431381775354</v>
       </c>
       <c r="E85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1062.6564709619017</v>
       </c>
       <c r="F85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.8390290136298972</v>
       </c>
       <c r="G85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46.772317849271523</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <f t="shared" si="11"/>
+        <v>7290.9245953545906</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4835298388888889</v>
       </c>
       <c r="D86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>264.0729629569214</v>
       </c>
       <c r="E86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1069.4954999755316</v>
       </c>
       <c r="F86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.7397271273741808</v>
       </c>
       <c r="G86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.423921751463425</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <f t="shared" si="11"/>
+        <v>7230.81979466544</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5009831311111113</v>
       </c>
       <c r="D87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>265.73709311182859</v>
       </c>
       <c r="E87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1076.2352271029058</v>
       </c>
       <c r="F87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.6417313804561218</v>
       </c>
       <c r="G87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44.112595730135581</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <f t="shared" si="11"/>
+        <v>7170.1215784667293</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5184364233333334</v>
       </c>
       <c r="D88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>267.37702678601528</v>
       </c>
       <c r="E88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1082.8769584833619</v>
       </c>
       <c r="F88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.5450417728770844</v>
       </c>
       <c r="G88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42.837571808706009</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <f t="shared" si="11"/>
+        <v>7108.8937140640337</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5358897155555555</v>
       </c>
       <c r="D89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>268.99308648302201</v>
       </c>
       <c r="E89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1089.422000256239</v>
       </c>
       <c r="F89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.4496583046361593</v>
       </c>
       <c r="G89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>41.598092246562175</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <f t="shared" si="11"/>
+        <v>7047.198697329266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5533430077777779</v>
       </c>
       <c r="D90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>270.58559470638892</v>
       </c>
       <c r="E90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1095.8716585608752</v>
       </c>
       <c r="F90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.3555809757333463</v>
       </c>
       <c r="G90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40.393409539103637</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <f t="shared" si="11"/>
+        <v>6985.0977697644848</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5707963</v>
       </c>
       <c r="D91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>272.15487395965641</v>
       </c>
       <c r="E91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1102.2272395366085</v>
       </c>
       <c r="F91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.262809786168873</v>
       </c>
       <c r="G91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>39.222786417732607</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <f t="shared" si="11"/>
+        <v>6922.6509355605813</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5882495922222222</v>
       </c>
       <c r="D92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>273.7012467463648</v>
       </c>
       <c r="E92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1108.4900493227774</v>
       </c>
       <c r="F92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.1713447359431939</v>
       </c>
       <c r="G92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>38.085495849853771</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <f t="shared" si="11"/>
+        <v>6859.9169786585262</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6057028844444443</v>
       </c>
       <c r="D93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>275.2250355700545</v>
       </c>
       <c r="E93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1114.6613940587206</v>
       </c>
       <c r="F93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.0811858250551722</v>
       </c>
       <c r="G93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>36.980821038851957</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <f t="shared" si="11"/>
+        <v>6796.9534798054956</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6231561766666669</v>
       </c>
       <c r="D94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>276.72656293426564</v>
       </c>
       <c r="E94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1120.7425798837758</v>
       </c>
       <c r="F94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.9923330535061723</v>
       </c>
       <c r="G94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>35.90805542414261</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <f t="shared" si="11"/>
+        <v>6733.8168336213566</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.640609468888889</v>
       </c>
       <c r="D95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>278.20615134253876</v>
       </c>
       <c r="E95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1126.7349129372819</v>
       </c>
       <c r="F95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.9047864212946024</v>
       </c>
       <c r="G95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>34.866502681105118</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <f t="shared" si="11"/>
+        <v>6670.5622656511841</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6580627611111112</v>
       </c>
       <c r="D96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>279.66412329841398</v>
       </c>
       <c r="E96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1132.6396993585765</v>
       </c>
       <c r="F96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.8185459284220542</v>
       </c>
       <c r="G96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>33.855476721156862</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <f t="shared" si="11"/>
+        <v>6607.243849432678</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6755160533333333</v>
       </c>
       <c r="D97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>281.10080130543179</v>
       </c>
       <c r="E97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1138.4582452869986</v>
       </c>
       <c r="F97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.7336115748878456</v>
       </c>
       <c r="G97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32.874301691687883</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <f t="shared" si="11"/>
+        <v>6543.9145235498436</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6929693455555554</v>
       </c>
       <c r="D98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>282.51650786713247</v>
       </c>
       <c r="E98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1144.1918568618864</v>
       </c>
       <c r="F98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.6499833606915217</v>
       </c>
       <c r="G98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.922311976091063</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <f t="shared" si="11"/>
+        <v>6480.6261086964514</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7104226377777776</v>
       </c>
       <c r="D99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>283.91156548705629</v>
       </c>
       <c r="E99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1149.841840222578</v>
       </c>
       <c r="F99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.5676612858337649</v>
       </c>
       <c r="G99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.998852193772091</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <f t="shared" si="11"/>
+        <v>6417.4293247360038</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7278759300000002</v>
       </c>
       <c r="D100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>285.28629666874366</v>
       </c>
       <c r="E100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1155.4095015084117</v>
       </c>
       <c r="F100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4866453503141202</v>
       </c>
       <c r="G100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.103277200123554</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <f t="shared" si="11"/>
+        <v>6354.3738077599555</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7453292222222223</v>
       </c>
       <c r="D101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>286.64102391573476</v>
       </c>
       <c r="E101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1160.8961468587258</v>
       </c>
       <c r="F101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.406935554132815</v>
       </c>
       <c r="G101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.23495208654553</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <f t="shared" si="11"/>
+        <v>6291.5081271494273</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7627825144444444</v>
       </c>
       <c r="D102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>287.97606973157008</v>
       </c>
       <c r="E102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1166.3030824128587</v>
       </c>
       <c r="F102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.3285318972898494</v>
       </c>
       <c r="G102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28.393252180435361</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <f t="shared" si="11"/>
+        <v>6228.8798026347067</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7802358066666666</v>
       </c>
       <c r="D103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>289.29175661978979</v>
       </c>
       <c r="E103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1171.6316143101485</v>
       </c>
       <c r="F103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.2514343797856782</v>
       </c>
       <c r="G103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.577563045194989</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <f t="shared" si="11"/>
+        <v>6166.5353213546332</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7976890988888887</v>
       </c>
       <c r="D104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>290.58840708393438</v>
       </c>
       <c r="E104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1176.8830486899342</v>
       </c>
       <c r="F104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.1756430016196191</v>
       </c>
       <c r="G104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>26.78728048021414</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <f t="shared" si="11"/>
+        <v>6104.5201549169142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8151423911111111</v>
       </c>
       <c r="D105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>291.86634362754415</v>
       </c>
       <c r="E105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1182.0586916915538</v>
       </c>
       <c r="F105">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.1011577627916722</v>
       </c>
       <c r="G105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>26.021810520889737</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105">
+        <f t="shared" si="11"/>
+        <v>6042.8787764582084</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8325956833333334</v>
       </c>
       <c r="D106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>293.1258887541594</v>
       </c>
       <c r="E106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1187.1598494543455</v>
       </c>
       <c r="F106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.0279786633020649</v>
       </c>
       <c r="G106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25.28056943862082</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <f t="shared" si="11"/>
+        <v>5981.6546777046751</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8500489755555556</v>
       </c>
       <c r="D107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>294.36736496732038</v>
       </c>
       <c r="E107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1192.1878281176475</v>
       </c>
       <c r="F107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.956105703150115</v>
       </c>
       <c r="G107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24.562983740797097</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <f t="shared" si="11"/>
+        <v>5920.8903860304272</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8675022677777777</v>
       </c>
       <c r="D108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>295.59109477056734</v>
       </c>
       <c r="E108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1197.1439338207977</v>
       </c>
       <c r="F108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8855388823378689</v>
       </c>
       <c r="G108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23.868490170835152</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108">
+        <f t="shared" si="11"/>
+        <v>5860.6274815218057</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8849555599999999</v>
       </c>
       <c r="D109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>296.79740066744091</v>
       </c>
       <c r="E109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1202.0294727031355</v>
       </c>
       <c r="F109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8162782008628255</v>
       </c>
       <c r="G109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23.196535708106456</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109">
+        <f t="shared" si="11"/>
+        <v>5800.9066140288487</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9024088522222222</v>
       </c>
       <c r="D110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>297.98660516148107</v>
       </c>
       <c r="E110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1206.8457509039984</v>
       </c>
       <c r="F110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.7483236587268038</v>
       </c>
       <c r="G110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.546577568024702</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110">
+        <f t="shared" si="11"/>
+        <v>5741.7675202353857</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9198621444444446</v>
       </c>
       <c r="D111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>299.15903075622845</v>
       </c>
       <c r="E111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1211.5940745627252</v>
       </c>
     </row>
